--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,6 +433,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
